--- a/Masui-Textinput台本追加.xlsx
+++ b/Masui-Textinput台本追加.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F90AF-53CD-9146-A96A-BA75C928D61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F62AC-6E0F-8D4D-9B4D-E72F708F492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="1260" windowWidth="26280" windowHeight="16740" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="台本" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">台本!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">台本!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>文字数</t>
     <rPh sb="0" eb="3">
@@ -2344,6 +2344,34 @@
     </rPh>
     <rPh sb="226" eb="228">
       <t>ryakusho</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード上のキーをひとつずつタップするのは時間がかかるので、キーをなぞることによって高速に単語入力できるようにするシステムが提案されています。
+この図では「fun」という単語を入力しようとしてキーボード画面をなぞっているところです。
+普通だと「f」「u」などのキーをタップしていくところですが、このシステムではfやuなどを指でなぞっています。
+この場合、関係ない文字の上も経由していますが、英単語としては「fun」である確率が最も高いので「fun」が入力されることになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用可能なもの</t>
+    <rPh sb="0" eb="2">
+      <t>riyou</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>kanou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>shuusei</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3954,13 +3982,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2449287</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4004,13 +4032,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2428241</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1369279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4054,13 +4082,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2463479</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1381760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4104,13 +4132,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2438401</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1376704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4154,13 +4182,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2457333</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1381760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4204,13 +4232,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619759</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2451256</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1381761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4254,13 +4282,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2479041</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1393966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4304,13 +4332,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>24962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2462194</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1402080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4617,11 +4645,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -4653,11 +4681,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(G3:G43)</f>
-        <v>11068</v>
+        <f>SUM(G3:G44)</f>
+        <v>11307</v>
       </c>
       <c r="H1" s="7">
-        <f>SUM(H3:H43)</f>
+        <f>SUM(H3:H44)</f>
         <v>2.837632275132275E-2</v>
       </c>
       <c r="I1" s="19"/>
@@ -4715,7 +4743,7 @@
         <v>4.6296296296296293E-4</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G43" si="0">LEN(PHONETIC(D3))</f>
+        <f t="shared" ref="G3:G44" si="0">LEN(PHONETIC(D3))</f>
         <v>0</v>
       </c>
       <c r="H3" s="9">
@@ -4746,7 +4774,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H43" si="1">F4+($G4/$J4)*60/86400</f>
+        <f t="shared" ref="H4:H44" si="1">F4+($G4/$J4)*60/86400</f>
         <v>1.0168650793650795E-4</v>
       </c>
       <c r="I4" s="11">
@@ -4804,7 +4832,7 @@
         <v>7.9861111111111116E-4</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I43" si="2">I5+H5</f>
+        <f t="shared" ref="I6:I44" si="2">I5+H5</f>
         <v>5.6464947089947086E-4</v>
       </c>
       <c r="J6" s="18">
@@ -5495,299 +5523,299 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="137" customHeight="1">
-      <c r="A32" s="16">
-        <v>29</v>
+      <c r="A32" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="D32" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>311</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="1"/>
-        <v>7.7132936507936503E-4</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1596395502645502E-2</v>
-      </c>
-      <c r="J32" s="18">
-        <v>280</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="192">
+    <row r="33" spans="1:10" ht="137" customHeight="1">
       <c r="A33" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E33" s="17"/>
       <c r="F33" s="24"/>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="1"/>
-        <v>1.009424603174603E-3</v>
+        <v>7.7132936507936503E-4</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="2"/>
-        <v>2.2367724867724866E-2</v>
+        <f>I31+H31</f>
+        <v>2.1596395502645502E-2</v>
       </c>
       <c r="J33" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="128" customHeight="1">
+    <row r="34" spans="1:10" ht="192">
       <c r="A34" s="16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F34" s="24"/>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G36" si="3">LEN(PHONETIC(D34))</f>
-        <v>257</v>
+        <f t="shared" si="0"/>
+        <v>407</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" ref="H34:H36" si="4">F34+($G34/$J34)*60/86400</f>
-        <v>6.3740079365079362E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.009424603174603E-3</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" ref="I34:I36" si="5">I33+H33</f>
-        <v>2.3377149470899469E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2367724867724866E-2</v>
       </c>
       <c r="J34" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="147" customHeight="1">
+    <row r="35" spans="1:10" ht="128" customHeight="1">
       <c r="A35" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="24"/>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>390</v>
+        <f t="shared" ref="G35:G37" si="3">LEN(PHONETIC(D35))</f>
+        <v>257</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="4"/>
-        <v>9.6726190476190469E-4</v>
+        <f t="shared" ref="H35:H37" si="4">F35+($G35/$J35)*60/86400</f>
+        <v>6.3740079365079362E-4</v>
       </c>
       <c r="I35" s="11">
-        <f>I34+H34</f>
-        <v>2.4014550264550263E-2</v>
+        <f t="shared" ref="I35:I37" si="5">I34+H34</f>
+        <v>2.3377149470899469E-2</v>
       </c>
       <c r="J35" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="123" customHeight="1">
+    <row r="36" spans="1:10" ht="147" customHeight="1">
       <c r="A36" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="24"/>
       <c r="G36" s="3">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="4"/>
-        <v>6.225198412698412E-4</v>
+        <v>9.6726190476190469E-4</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="5"/>
-        <v>2.4981812169312168E-2</v>
+        <f>I35+H35</f>
+        <v>2.4014550264550263E-2</v>
       </c>
       <c r="J36" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="121" customHeight="1">
+    <row r="37" spans="1:10" ht="123" customHeight="1">
       <c r="A37" s="16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="24"/>
       <c r="G37" s="3">
-        <f t="shared" ref="G37" si="6">LEN(PHONETIC(D37))</f>
-        <v>337</v>
+        <f t="shared" si="3"/>
+        <v>251</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" ref="H37" si="7">F37+($G37/$J37)*60/86400</f>
-        <v>8.3581349206349198E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.225198412698412E-4</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" ref="I37" si="8">I36+H36</f>
-        <v>2.5604332010582008E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4981812169312168E-2</v>
       </c>
       <c r="J37" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="187" customHeight="1">
+    <row r="38" spans="1:10" ht="121" customHeight="1">
       <c r="A38" s="16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="24"/>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G39" si="9">LEN(PHONETIC(D38))</f>
-        <v>463</v>
+        <f t="shared" ref="G38" si="6">LEN(PHONETIC(D38))</f>
+        <v>337</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" ref="H38:H39" si="10">F38+($G38/$J38)*60/86400</f>
-        <v>1.1483134920634919E-3</v>
+        <f t="shared" ref="H38" si="7">F38+($G38/$J38)*60/86400</f>
+        <v>8.3581349206349198E-4</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" ref="I38:I40" si="11">I37+H37</f>
-        <v>2.64401455026455E-2</v>
+        <f t="shared" ref="I38" si="8">I37+H37</f>
+        <v>2.5604332010582008E-2</v>
       </c>
       <c r="J38" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="128" customHeight="1">
+    <row r="39" spans="1:10" ht="187" customHeight="1">
       <c r="A39" s="16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="24"/>
       <c r="G39" s="3">
+        <f t="shared" ref="G39:G40" si="9">LEN(PHONETIC(D39))</f>
+        <v>463</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:H40" si="10">F39+($G39/$J39)*60/86400</f>
+        <v>1.1483134920634919E-3</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" ref="I39:I41" si="11">I38+H38</f>
+        <v>2.64401455026455E-2</v>
+      </c>
+      <c r="J39" s="18">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="128" customHeight="1">
+      <c r="A40" s="16">
+        <v>36</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="3">
         <f t="shared" si="9"/>
         <v>131</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <f t="shared" si="10"/>
         <v>3.2490079365079367E-4</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <f t="shared" si="11"/>
         <v>2.7588458994708992E-2</v>
       </c>
-      <c r="J39" s="18">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="11"/>
-        <v>2.7913359788359786E-2</v>
-      </c>
       <c r="J40" s="18">
         <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="16">
-        <v>31</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="23">
-        <v>4.6296296296296293E-4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F41" s="24"/>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="1"/>
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.7913359788359786E-2</v>
       </c>
       <c r="J41" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:10" ht="30">
+      <c r="A42" s="16">
+        <v>31</v>
+      </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="C42" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="23">
+        <v>4.6296296296296293E-4</v>
+      </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6296296296296293E-4</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" si="2"/>
-        <v>2.837632275132275E-2</v>
+        <v>2.7913359788359786E-2</v>
       </c>
       <c r="J42" s="18">
         <v>280</v>
@@ -5813,6 +5841,29 @@
         <v>2.837632275132275E-2</v>
       </c>
       <c r="J43" s="18">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="2"/>
+        <v>2.837632275132275E-2</v>
+      </c>
+      <c r="J44" s="18">
         <v>280</v>
       </c>
     </row>
